--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,34 +43,34 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>waste</t>
   </si>
   <si>
     <t>negative</t>
@@ -88,262 +88,253 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>family</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>nice</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>cream</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>last</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>little</t>
+    <t>bought</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
+    <t>big</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>job</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>buy</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>product</t>
@@ -707,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -818,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8622291021671826</v>
+        <v>0.8668730650154799</v>
       </c>
       <c r="L5">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M5">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.44</v>
+        <v>0.625</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,13 +991,13 @@
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3636363636363636</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.38</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7012987012987013</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2692307692307692</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.6901408450704225</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1777777777777778</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.6779661016949152</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L11">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M11">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1513513513513514</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.6712328767123288</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.09743589743589744</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6500802568218299</v>
+        <v>0.6613162118780096</v>
       </c>
       <c r="L13">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="M13">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1317,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6363636363636364</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1343,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6086956521739131</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,7 +1369,7 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6052631578947368</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L16">
         <v>46</v>
@@ -1396,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1404,13 +1395,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.578125</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1430,13 +1421,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.5657142857142857</v>
+        <v>0.609375</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1456,13 +1447,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.5576923076923077</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L19">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1482,13 +1473,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.5571428571428572</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1508,13 +1499,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5542168674698795</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1526,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1534,13 +1525,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1560,13 +1551,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.52</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L23">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="M23">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1578,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1586,13 +1577,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5147058823529411</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1604,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1612,13 +1603,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5138888888888888</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1630,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1638,13 +1629,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5128205128205128</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1656,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1664,13 +1655,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5111111111111111</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1682,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1690,13 +1681,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5029940119760479</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L28">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1708,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1716,13 +1707,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4791666666666667</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1734,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1742,13 +1733,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1760,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1768,13 +1759,13 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.463855421686747</v>
+        <v>0.46</v>
       </c>
       <c r="L31">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1786,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1794,13 +1785,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4360902255639098</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L32">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1812,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1820,13 +1811,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.3968253968253968</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1838,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1846,13 +1837,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.392156862745098</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1864,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1872,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.3759398496240601</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1890,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1898,13 +1889,13 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.3658536585365854</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1916,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1924,13 +1915,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3597122302158273</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1942,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1950,13 +1941,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3553921568627451</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L38">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="M38">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1968,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>263</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1976,13 +1967,13 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3540856031128405</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L39">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1994,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2002,13 +1993,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3492822966507177</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L40">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2020,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>136</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2054,13 +2045,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2072,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2080,13 +2071,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3278688524590164</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2098,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2106,13 +2097,13 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3225806451612903</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2124,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2132,13 +2123,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3136986301369863</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L45">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="M45">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2150,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>501</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2158,13 +2149,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.2857142857142857</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2176,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2184,13 +2175,13 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.2769230769230769</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2202,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2210,13 +2201,13 @@
         <v>65</v>
       </c>
       <c r="K48">
-        <v>0.2673267326732673</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2228,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2236,13 +2227,13 @@
         <v>66</v>
       </c>
       <c r="K49">
-        <v>0.2647058823529412</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2254,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2262,13 +2253,13 @@
         <v>67</v>
       </c>
       <c r="K50">
-        <v>0.2612612612612613</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2280,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2288,13 +2279,13 @@
         <v>68</v>
       </c>
       <c r="K51">
-        <v>0.2582781456953642</v>
+        <v>0.2604951560818084</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2306,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>112</v>
+        <v>687</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2314,13 +2305,13 @@
         <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2540365984930033</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L52">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2332,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>693</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2340,13 +2331,13 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.25</v>
+        <v>0.2264900662251656</v>
       </c>
       <c r="L53">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2358,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>63</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2366,13 +2357,13 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>0.2410596026490066</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L54">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2384,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>573</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2392,7 +2383,7 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2368421052631579</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L55">
         <v>18</v>
@@ -2410,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2418,25 +2409,25 @@
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.225705329153605</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L56">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="M56">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>247</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2444,25 +2435,25 @@
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2162162162162162</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M57">
         <v>24</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2470,13 +2461,13 @@
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2135549872122762</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L58">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2488,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>615</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2496,25 +2487,25 @@
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.212962962962963</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>85</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2522,13 +2513,13 @@
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.2083333333333333</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2540,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>57</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2548,13 +2539,13 @@
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.1946308724832215</v>
+        <v>0.17</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2566,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2574,13 +2565,13 @@
         <v>79</v>
       </c>
       <c r="K62">
-        <v>0.1766109785202864</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="L62">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="M62">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2592,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>345</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2600,13 +2591,13 @@
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.1764705882352941</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2618,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2626,13 +2617,13 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>0.1666666666666667</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L64">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M64">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2644,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>380</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2652,25 +2643,25 @@
         <v>82</v>
       </c>
       <c r="K65">
-        <v>0.1594594594594595</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="L65">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>311</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2678,13 +2669,13 @@
         <v>83</v>
       </c>
       <c r="K66">
-        <v>0.1586715867158671</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L66">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M66">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2696,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>228</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2704,25 +2695,25 @@
         <v>84</v>
       </c>
       <c r="K67">
-        <v>0.1517857142857143</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>95</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2730,13 +2721,13 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>0.1515151515151515</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2748,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>84</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2756,13 +2747,13 @@
         <v>86</v>
       </c>
       <c r="K69">
-        <v>0.1463414634146341</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2774,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2782,13 +2773,13 @@
         <v>87</v>
       </c>
       <c r="K70">
-        <v>0.1454545454545454</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L70">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2800,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>376</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2808,13 +2799,13 @@
         <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1452991452991453</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2826,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>100</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2834,25 +2825,25 @@
         <v>89</v>
       </c>
       <c r="K72">
-        <v>0.1407407407407407</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>232</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2860,13 +2851,13 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1237113402061856</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L73">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2878,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2886,13 +2877,13 @@
         <v>91</v>
       </c>
       <c r="K74">
-        <v>0.1230769230769231</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2904,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>114</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2912,13 +2903,13 @@
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1226993865030675</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L75">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2930,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2938,25 +2929,25 @@
         <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1170731707317073</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L76">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>362</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2964,13 +2955,13 @@
         <v>94</v>
       </c>
       <c r="K77">
-        <v>0.1133004926108374</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2982,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2990,13 +2981,13 @@
         <v>95</v>
       </c>
       <c r="K78">
-        <v>0.1129943502824859</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L78">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3008,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3016,25 +3007,25 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>0.1092436974789916</v>
+        <v>0.08920863309352518</v>
       </c>
       <c r="L79">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M79">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>212</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3042,25 +3033,25 @@
         <v>97</v>
       </c>
       <c r="K80">
-        <v>0.108974358974359</v>
+        <v>0.08707865168539326</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>139</v>
+        <v>975</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3068,25 +3059,25 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>0.08464849354375897</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="L81">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="M81">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N81">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>638</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3094,25 +3085,25 @@
         <v>99</v>
       </c>
       <c r="K82">
-        <v>0.07857811038353602</v>
+        <v>0.06678230702515178</v>
       </c>
       <c r="L82">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M82">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N82">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O82">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>985</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3120,13 +3111,13 @@
         <v>100</v>
       </c>
       <c r="K83">
-        <v>0.07692307692307693</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3138,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>192</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3146,13 +3137,13 @@
         <v>101</v>
       </c>
       <c r="K84">
-        <v>0.07650273224043716</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L84">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3164,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>338</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3172,13 +3163,13 @@
         <v>102</v>
       </c>
       <c r="K85">
-        <v>0.06048387096774194</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3190,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3198,25 +3189,25 @@
         <v>103</v>
       </c>
       <c r="K86">
-        <v>0.05719557195571956</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="L86">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M86">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3224,25 +3215,25 @@
         <v>104</v>
       </c>
       <c r="K87">
-        <v>0.05514705882352941</v>
+        <v>0.05326876513317191</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>257</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3250,25 +3241,25 @@
         <v>105</v>
       </c>
       <c r="K88">
-        <v>0.05339805825242718</v>
+        <v>0.05089058524173028</v>
       </c>
       <c r="L88">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M88">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N88">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O88">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3276,25 +3267,25 @@
         <v>106</v>
       </c>
       <c r="K89">
-        <v>0.05182341650671785</v>
+        <v>0.04120879120879121</v>
       </c>
       <c r="L89">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>494</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3302,103 +3293,25 @@
         <v>107</v>
       </c>
       <c r="K90">
-        <v>0.04861111111111111</v>
+        <v>0.02887139107611549</v>
       </c>
       <c r="L90">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M90">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="N90">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O90">
-        <v>0.07999999999999996</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K91">
-        <v>0.04383561643835616</v>
-      </c>
-      <c r="L91">
-        <v>16</v>
-      </c>
-      <c r="M91">
-        <v>22</v>
-      </c>
-      <c r="N91">
-        <v>0.73</v>
-      </c>
-      <c r="O91">
-        <v>0.27</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K92">
-        <v>0.04325699745547074</v>
-      </c>
-      <c r="L92">
-        <v>17</v>
-      </c>
-      <c r="M92">
-        <v>18</v>
-      </c>
-      <c r="N92">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O92">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K93">
-        <v>0.02621231979030144</v>
-      </c>
-      <c r="L93">
-        <v>20</v>
-      </c>
-      <c r="M93">
-        <v>24</v>
-      </c>
-      <c r="N93">
-        <v>0.83</v>
-      </c>
-      <c r="O93">
-        <v>0.17</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
